--- a/web_scraping/maps_scraper/Contacs_Scraper/webs.xlsx
+++ b/web_scraping/maps_scraper/Contacs_Scraper/webs.xlsx
@@ -23,87 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">webs</t>
   </si>
   <si>
-    <t xml:space="preserve">https://cincotaco.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.neuhauscafe.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://eatzis.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.insidethegem.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://locations.papajohns.com/united-states/tx/75230/dallas/635-preston-royal-shopping-ctr?utm_source=gmb&amp;utm_medium=organic&amp;y_source=1_MTA2OTA4NzUtNzE1LWxvY2F0aW9uLndlYnNpdGU%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mcdonalds.com/us/en-us/location/TX/DALLAS/10720-PRESTON-RD/12212.html?cid=RF:YXT:GMB::Clicks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://itsjustwings.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://vitalitybowls.com/locations/dallas/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=gmbweblink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.frullati.com/stores/2105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dcafetx.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.potbelly.com/locations/texas/preston-forest?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=Yext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://locations.jimmyjohns.com/tx/dallas/sandwiches-3644.html?utm_source=google%20my%20business&amp;utm_medium=organic&amp;utm_campaign=website%20link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://locations.jimmyjohns.com/tx/dallas/sandwiches-505.html?utm_source=google%20my%20business&amp;utm_medium=organic&amp;utm_campaign=website%20link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://wrcoffee.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.starbucks.com/store-locator/store/16524/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.botolino.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.jerseymikes.com/15164/dallas-tx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.starbucks.com/store-locator/store/16276/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.starbucks.com/store-locator/store/16301/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.butterfieldgourmet.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://locations.traderjoes.com/tx/dallas/401/?utm_source=gmb&amp;utm_medium=organic&amp;utm_campaign=local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.wholefoodsmarket.com/stores/preston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://locations.smoothieking.com/ll/US/TX/Dallas/6061-Forest-Lane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://forest-donuts.business.site/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.baskinrobbins.com/?utm_source=Yext&amp;utm_medium=organic&amp;utm_campaign=Yext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ihyogurt.com/</t>
+    <t xml:space="preserve">https://theguild.co/destinations/Dallas/victory-park-katy-trail</t>
   </si>
 </sst>
 </file>
@@ -264,10 +189,10 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="241.42"/>
   </cols>
@@ -283,129 +208,79 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1"/>

--- a/web_scraping/maps_scraper/Contacs_Scraper/webs.xlsx
+++ b/web_scraping/maps_scraper/Contacs_Scraper/webs.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">webs</t>
   </si>
   <si>
-    <t xml:space="preserve">https://theguild.co/destinations/Dallas/victory-park-katy-trail</t>
+    <t xml:space="preserve">https://www.gob.mx/sre</t>
   </si>
 </sst>
 </file>
@@ -189,10 +189,10 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="241.42"/>
   </cols>

--- a/web_scraping/maps_scraper/Contacs_Scraper/webs.xlsx
+++ b/web_scraping/maps_scraper/Contacs_Scraper/webs.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">webs</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.mx/sre</t>
+    <t xml:space="preserve">https://www.gob.mx/cre#4328</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="241.42"/>
   </cols>

--- a/web_scraping/maps_scraper/Contacs_Scraper/webs.xlsx
+++ b/web_scraping/maps_scraper/Contacs_Scraper/webs.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">webs</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.mx/cre#4328</t>
+    <t xml:space="preserve">https://www.yucatan.gob.mx/gobierno/</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="241.42"/>
   </cols>
